--- a/BIDS_standardization/CHARITE_CHANNEL_NAMING.xlsx
+++ b/BIDS_standardization/CHARITE_CHANNEL_NAMING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede.sharepoint.com/sites/AGBewegungsstrungen-LFP-Labor/Shared Documents/LFP-Labor/FileAndChannelNaming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\CODE\icn\icn_bids\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="8_{CFAF6246-B4F7-4696-A1D5-C589A02A1D1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33FAFCB5-EA64-4007-9F57-DFA55DE7E83C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFFB07D-EE00-4946-85E5-B02207DBA664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="690" xr2:uid="{89569B8A-D8E6-4033-88F6-D23FA03DC854}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" activeTab="4" xr2:uid="{89569B8A-D8E6-4033-88F6-D23FA03DC854}"/>
   </bookViews>
   <sheets>
     <sheet name="Boston - TMSi" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="163">
   <si>
     <t>Channel naming schemes in the Interventional and Cognitive Neuromodulation group and the CRCNS iDBS collaboration</t>
   </si>
@@ -491,6 +491,42 @@
   </si>
   <si>
     <t>R/L</t>
+  </si>
+  <si>
+    <t>CZ_</t>
+  </si>
+  <si>
+    <t>FZ</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>FZ_</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
 </sst>
 </file>
@@ -830,7 +866,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -846,7 +882,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1144,30 +1180,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D03CD8-37D9-4F50-B3CF-F78391FE3950}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="6.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="9" width="16.54296875" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" customWidth="1"/>
-    <col min="14" max="14" width="18.1796875" customWidth="1"/>
-    <col min="15" max="16" width="23.7265625" customWidth="1"/>
-    <col min="17" max="17" width="58.7265625" customWidth="1"/>
-    <col min="18" max="18" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="58.7109375" customWidth="1"/>
+    <col min="18" max="18" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1224,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1207,7 +1243,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1228,7 +1264,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1287,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1274,7 +1310,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1292,7 +1328,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>21</v>
       </c>
@@ -1356,8 +1392,8 @@
       <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34">
-        <v>1</v>
+      <c r="E8" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>24</v>
@@ -1373,11 +1409,11 @@
       </c>
       <c r="J8" s="35" t="str">
         <f t="shared" ref="J8:J39" si="0">CONCATENATE(B8,D8,E8,F8,H8)</f>
-        <v>LFPR1STNB</v>
+        <v>LFPR01STNB</v>
       </c>
       <c r="K8" s="35" t="str">
         <f t="shared" ref="K8:K23" si="1">CONCATENATE(C8,"_",D8,"_",E8,"_",G8,"_",I8)</f>
-        <v>LFP_R_1_STN_BS</v>
+        <v>LFP_R_01_STN_BS</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="30" t="s">
@@ -1397,7 +1433,7 @@
       </c>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>30</v>
       </c>
@@ -1410,8 +1446,8 @@
       <c r="D9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="28">
-        <v>2</v>
+      <c r="E9" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>24</v>
@@ -1427,11 +1463,11 @@
       </c>
       <c r="J9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR2STNB</v>
+        <v>LFPR02STNB</v>
       </c>
       <c r="K9" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_2_STN_BS</v>
+        <v>LFP_R_02_STN_BS</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
@@ -1447,7 +1483,7 @@
       </c>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>34</v>
       </c>
@@ -1460,8 +1496,8 @@
       <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="19">
-        <v>3</v>
+      <c r="E10" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>24</v>
@@ -1477,11 +1513,11 @@
       </c>
       <c r="J10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR3STNB</v>
+        <v>LFPR03STNB</v>
       </c>
       <c r="K10" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_3_STN_BS</v>
+        <v>LFP_R_03_STN_BS</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="21"/>
@@ -1497,7 +1533,7 @@
       </c>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
@@ -1510,8 +1546,8 @@
       <c r="D11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="16">
-        <v>4</v>
+      <c r="E11" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>24</v>
@@ -1527,11 +1563,11 @@
       </c>
       <c r="J11" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR4STNB</v>
+        <v>LFPR04STNB</v>
       </c>
       <c r="K11" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_4_STN_BS</v>
+        <v>LFP_R_04_STN_BS</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="15" t="s">
@@ -1550,7 +1586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -1563,8 +1599,8 @@
       <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="16">
-        <v>5</v>
+      <c r="E12" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>24</v>
@@ -1580,11 +1616,11 @@
       </c>
       <c r="J12" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR5STNB</v>
+        <v>LFPR05STNB</v>
       </c>
       <c r="K12" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_5_STN_BS</v>
+        <v>LFP_R_05_STN_BS</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="18"/>
@@ -1599,7 +1635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -1612,8 +1648,8 @@
       <c r="D13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="16">
-        <v>6</v>
+      <c r="E13" s="34" t="s">
+        <v>160</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>24</v>
@@ -1629,11 +1665,11 @@
       </c>
       <c r="J13" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR6STNB</v>
+        <v>LFPR06STNB</v>
       </c>
       <c r="K13" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_6_STN_BS</v>
+        <v>LFP_R_06_STN_BS</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="21"/>
@@ -1644,7 +1680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>50</v>
       </c>
@@ -1657,8 +1693,8 @@
       <c r="D14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="16">
-        <v>7</v>
+      <c r="E14" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>24</v>
@@ -1674,11 +1710,11 @@
       </c>
       <c r="J14" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR7STNB</v>
+        <v>LFPR07STNB</v>
       </c>
       <c r="K14" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_7_STN_BS</v>
+        <v>LFP_R_07_STN_BS</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="15" t="s">
@@ -1697,7 +1733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -1710,8 +1746,8 @@
       <c r="D15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="16">
-        <v>8</v>
+      <c r="E15" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>24</v>
@@ -1727,11 +1763,11 @@
       </c>
       <c r="J15" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR8STNB</v>
+        <v>LFPR08STNB</v>
       </c>
       <c r="K15" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_8_STN_BS</v>
+        <v>LFP_R_08_STN_BS</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="21"/>
@@ -1744,7 +1780,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -1757,8 +1793,8 @@
       <c r="D16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="16">
-        <v>1</v>
+      <c r="E16" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>24</v>
@@ -1774,11 +1810,11 @@
       </c>
       <c r="J16" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL1STNB</v>
+        <v>LFPL01STNB</v>
       </c>
       <c r="K16" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_1_STN_BS</v>
+        <v>LFP_L_01_STN_BS</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="15" t="s">
@@ -1797,7 +1833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>62</v>
       </c>
@@ -1810,8 +1846,8 @@
       <c r="D17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="16">
-        <v>2</v>
+      <c r="E17" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>24</v>
@@ -1827,11 +1863,11 @@
       </c>
       <c r="J17" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL2STNB</v>
+        <v>LFPL02STNB</v>
       </c>
       <c r="K17" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_2_STN_BS</v>
+        <v>LFP_L_02_STN_BS</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="18"/>
@@ -1847,7 +1883,7 @@
       </c>
       <c r="T17" s="7"/>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
@@ -1860,8 +1896,8 @@
       <c r="D18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="16">
-        <v>3</v>
+      <c r="E18" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>24</v>
@@ -1877,11 +1913,11 @@
       </c>
       <c r="J18" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL3STNB</v>
+        <v>LFPL03STNB</v>
       </c>
       <c r="K18" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_3_STN_BS</v>
+        <v>LFP_L_03_STN_BS</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="18"/>
@@ -1893,7 +1929,7 @@
       </c>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -1906,8 +1942,8 @@
       <c r="D19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="16">
-        <v>4</v>
+      <c r="E19" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>24</v>
@@ -1923,11 +1959,11 @@
       </c>
       <c r="J19" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL4STNB</v>
+        <v>LFPL04STNB</v>
       </c>
       <c r="K19" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_4_STN_BS</v>
+        <v>LFP_L_04_STN_BS</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="18"/>
@@ -1938,7 +1974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -1951,8 +1987,8 @@
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="16">
-        <v>5</v>
+      <c r="E20" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>24</v>
@@ -1968,11 +2004,11 @@
       </c>
       <c r="J20" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL5STNB</v>
+        <v>LFPL05STNB</v>
       </c>
       <c r="K20" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_5_STN_BS</v>
+        <v>LFP_L_05_STN_BS</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="21"/>
@@ -1984,7 +2020,7 @@
       </c>
       <c r="T20" s="7"/>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
@@ -1997,8 +2033,8 @@
       <c r="D21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="16">
-        <v>6</v>
+      <c r="E21" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>24</v>
@@ -2014,11 +2050,11 @@
       </c>
       <c r="J21" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL6STNB</v>
+        <v>LFPL06STNB</v>
       </c>
       <c r="K21" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_6_STN_BS</v>
+        <v>LFP_L_06_STN_BS</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="15" t="s">
@@ -2039,7 +2075,7 @@
       <c r="S21" s="8"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
@@ -2052,8 +2088,8 @@
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="16">
-        <v>7</v>
+      <c r="E22" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>24</v>
@@ -2069,11 +2105,11 @@
       </c>
       <c r="J22" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL7STNB</v>
+        <v>LFPL07STNB</v>
       </c>
       <c r="K22" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_7_STN_BS</v>
+        <v>LFP_L_07_STN_BS</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="21"/>
@@ -2087,7 +2123,7 @@
       <c r="Q22" s="23"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>74</v>
       </c>
@@ -2100,8 +2136,8 @@
       <c r="D23" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="28">
-        <v>8</v>
+      <c r="E23" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>24</v>
@@ -2117,11 +2153,11 @@
       </c>
       <c r="J23" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL8STNB</v>
+        <v>LFPL08STNB</v>
       </c>
       <c r="K23" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_8_STN_BS</v>
+        <v>LFP_L_08_STN_BS</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="27" t="s">
@@ -2141,7 +2177,7 @@
       </c>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>80</v>
       </c>
@@ -2173,7 +2209,7 @@
       <c r="Q24" s="1"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>82</v>
       </c>
@@ -2205,7 +2241,7 @@
       <c r="Q25" s="1"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>83</v>
       </c>
@@ -2237,7 +2273,7 @@
       <c r="Q26" s="1"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
         <v>84</v>
       </c>
@@ -2270,7 +2306,7 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
     </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>85</v>
       </c>
@@ -2303,7 +2339,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>86</v>
       </c>
@@ -2335,7 +2371,7 @@
       <c r="Q29" s="1"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>87</v>
       </c>
@@ -2368,7 +2404,7 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
     </row>
-    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>88</v>
       </c>
@@ -2401,7 +2437,7 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
     </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>89</v>
       </c>
@@ -2414,8 +2450,8 @@
       <c r="D32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="16">
-        <v>1</v>
+      <c r="E32" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>90</v>
@@ -2431,11 +2467,11 @@
       </c>
       <c r="J32" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL1SMCA</v>
+        <v>ECXL01SMCA</v>
       </c>
       <c r="K32" s="35" t="str">
         <f>CONCATENATE(C32,"_",D32,"_",E32,"_",G32,"_",I32)</f>
-        <v>ECOG_L_1_SMC_AT</v>
+        <v>ECOG_L_01_SMC_AT</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2446,7 +2482,7 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>93</v>
       </c>
@@ -2459,8 +2495,8 @@
       <c r="D33" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="28">
-        <v>2</v>
+      <c r="E33" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="F33" s="28" t="s">
         <v>90</v>
@@ -2476,11 +2512,11 @@
       </c>
       <c r="J33" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL2SMCA</v>
+        <v>ECXL02SMCA</v>
       </c>
       <c r="K33" s="35" t="str">
         <f t="shared" ref="K33:K37" si="3">CONCATENATE(C33,"_",D33,"_",E33,"_",G33,"_",I33)</f>
-        <v>ECOG_L_2_SMC_AT</v>
+        <v>ECOG_L_02_SMC_AT</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2489,7 +2525,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>94</v>
       </c>
@@ -2502,8 +2538,8 @@
       <c r="D34" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="22">
-        <v>3</v>
+      <c r="E34" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>90</v>
@@ -2519,11 +2555,11 @@
       </c>
       <c r="J34" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL3SMCA</v>
+        <v>ECXL03SMCA</v>
       </c>
       <c r="K34" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>ECOG_L_3_SMC_AT</v>
+        <v>ECOG_L_03_SMC_AT</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2532,7 +2568,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>95</v>
       </c>
@@ -2545,8 +2581,8 @@
       <c r="D35" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="22">
-        <v>4</v>
+      <c r="E35" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="28" t="s">
         <v>90</v>
@@ -2562,11 +2598,11 @@
       </c>
       <c r="J35" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL4SMCA</v>
+        <v>ECXL04SMCA</v>
       </c>
       <c r="K35" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>ECOG_L_4_SMC_AT</v>
+        <v>ECOG_L_04_SMC_AT</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2575,7 +2611,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>96</v>
       </c>
@@ -2588,8 +2624,8 @@
       <c r="D36" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="22">
-        <v>5</v>
+      <c r="E36" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>90</v>
@@ -2605,11 +2641,11 @@
       </c>
       <c r="J36" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL5SMCA</v>
+        <v>ECXL05SMCA</v>
       </c>
       <c r="K36" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>ECOG_L_5_SMC_AT</v>
+        <v>ECOG_L_05_SMC_AT</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2618,7 +2654,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>97</v>
       </c>
@@ -2631,8 +2667,8 @@
       <c r="D37" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="22">
-        <v>6</v>
+      <c r="E37" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>90</v>
@@ -2648,11 +2684,11 @@
       </c>
       <c r="J37" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL6SMCA</v>
+        <v>ECXL06SMCA</v>
       </c>
       <c r="K37" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>ECOG_L_6_SMC_AT</v>
+        <v>ECOG_L_06_SMC_AT</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2661,7 +2697,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>98</v>
       </c>
@@ -2678,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>102</v>
@@ -2691,11 +2727,11 @@
       </c>
       <c r="J38" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>EEGC1Cz_T</v>
+        <v>EEGC1CZ_T</v>
       </c>
       <c r="K38" s="35" t="str">
         <f>CONCATENATE(C38,"_",G38,"_",I38)</f>
-        <v>EEG_Cz_TM</v>
+        <v>EEG_CZ_TM</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2704,7 +2740,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>104</v>
       </c>
@@ -2721,10 +2757,10 @@
         <v>2</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>102</v>
@@ -2734,11 +2770,11 @@
       </c>
       <c r="J39" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>EEGC2Fz_T</v>
+        <v>EEGC2FZ_T</v>
       </c>
       <c r="K39" s="35" t="str">
         <f>CONCATENATE(C39,"_",G39,"_",I39)</f>
-        <v>EEG_Fz_TM</v>
+        <v>EEG_FZ_TM</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2747,7 +2783,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>107</v>
       </c>
@@ -2789,7 +2825,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="19" t="s">
         <v>71</v>
@@ -2829,7 +2865,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="22" t="s">
         <v>71</v>
@@ -2869,7 +2905,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
         <v>113</v>
       </c>
@@ -2911,7 +2947,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="19" t="s">
         <v>71</v>
@@ -2951,7 +2987,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="22" t="s">
         <v>71</v>
@@ -2991,7 +3027,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>114</v>
       </c>
@@ -3034,7 +3070,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
         <v>118</v>
       </c>
@@ -3076,7 +3112,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="22" t="s">
         <v>60</v>
@@ -3130,30 +3166,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E90D43A-0E0C-4D79-9D9D-D9F54E8E9853}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="27.453125" customWidth="1"/>
-    <col min="11" max="11" width="27.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" customWidth="1"/>
-    <col min="16" max="16" width="29.1796875" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" customWidth="1"/>
     <col min="17" max="17" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3172,7 +3208,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3189,7 +3225,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3208,7 +3244,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3229,7 +3265,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3250,7 +3286,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
@@ -3266,7 +3302,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -3317,7 +3353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>21</v>
       </c>
@@ -3330,8 +3366,8 @@
       <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34">
-        <v>1</v>
+      <c r="E8" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>24</v>
@@ -3347,11 +3383,11 @@
       </c>
       <c r="J8" s="35" t="str">
         <f t="shared" ref="J8:J39" si="0">CONCATENATE(B8,D8,E8,F8,H8)</f>
-        <v>LFPR1STNM</v>
+        <v>LFPR01STNM</v>
       </c>
       <c r="K8" s="35" t="str">
         <f t="shared" ref="K8:K31" si="1">CONCATENATE(C8,"_",D8,"_",E8,"_",G8,"_",I8)</f>
-        <v>LFP_R_1_STN_MT</v>
+        <v>LFP_R_01_STN_MT</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="30" t="s">
@@ -3371,7 +3407,7 @@
       </c>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>30</v>
       </c>
@@ -3384,8 +3420,8 @@
       <c r="D9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="28">
-        <v>2</v>
+      <c r="E9" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>24</v>
@@ -3401,11 +3437,11 @@
       </c>
       <c r="J9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR2STNM</v>
+        <v>LFPR02STNM</v>
       </c>
       <c r="K9" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_2_STN_MT</v>
+        <v>LFP_R_02_STN_MT</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
@@ -3420,7 +3456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>34</v>
       </c>
@@ -3433,8 +3469,8 @@
       <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="19">
-        <v>3</v>
+      <c r="E10" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>24</v>
@@ -3450,11 +3486,11 @@
       </c>
       <c r="J10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR3STNM</v>
+        <v>LFPR03STNM</v>
       </c>
       <c r="K10" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_3_STN_MT</v>
+        <v>LFP_R_03_STN_MT</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="21"/>
@@ -3469,7 +3505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
@@ -3482,8 +3518,8 @@
       <c r="D11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="16">
-        <v>4</v>
+      <c r="E11" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>24</v>
@@ -3499,11 +3535,11 @@
       </c>
       <c r="J11" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR4STNM</v>
+        <v>LFPR04STNM</v>
       </c>
       <c r="K11" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_4_STN_MT</v>
+        <v>LFP_R_04_STN_MT</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="15" t="s">
@@ -3522,7 +3558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -3535,8 +3571,8 @@
       <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="16">
-        <v>5</v>
+      <c r="E12" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>24</v>
@@ -3552,11 +3588,11 @@
       </c>
       <c r="J12" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR5STNM</v>
+        <v>LFPR05STNM</v>
       </c>
       <c r="K12" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_5_STN_MT</v>
+        <v>LFP_R_05_STN_MT</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="18"/>
@@ -3571,7 +3607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -3584,8 +3620,8 @@
       <c r="D13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="16">
-        <v>6</v>
+      <c r="E13" s="34" t="s">
+        <v>160</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>24</v>
@@ -3601,11 +3637,11 @@
       </c>
       <c r="J13" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR6STNM</v>
+        <v>LFPR06STNM</v>
       </c>
       <c r="K13" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_6_STN_MT</v>
+        <v>LFP_R_06_STN_MT</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="21"/>
@@ -3616,7 +3652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>50</v>
       </c>
@@ -3629,8 +3665,8 @@
       <c r="D14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="16">
-        <v>7</v>
+      <c r="E14" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>24</v>
@@ -3646,11 +3682,11 @@
       </c>
       <c r="J14" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR7STNM</v>
+        <v>LFPR07STNM</v>
       </c>
       <c r="K14" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_7_STN_MT</v>
+        <v>LFP_R_07_STN_MT</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="15" t="s">
@@ -3669,7 +3705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -3682,8 +3718,8 @@
       <c r="D15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="16">
-        <v>8</v>
+      <c r="E15" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>24</v>
@@ -3699,11 +3735,11 @@
       </c>
       <c r="J15" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR8STNM</v>
+        <v>LFPR08STNM</v>
       </c>
       <c r="K15" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_8_STN_MT</v>
+        <v>LFP_R_08_STN_MT</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="21"/>
@@ -3716,7 +3752,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -3729,8 +3765,8 @@
       <c r="D16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="16">
-        <v>1</v>
+      <c r="E16" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>24</v>
@@ -3746,11 +3782,11 @@
       </c>
       <c r="J16" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL1STNM</v>
+        <v>LFPL01STNM</v>
       </c>
       <c r="K16" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_1_STN_MT</v>
+        <v>LFP_L_01_STN_MT</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="15" t="s">
@@ -3769,7 +3805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>62</v>
       </c>
@@ -3782,8 +3818,8 @@
       <c r="D17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="16">
-        <v>2</v>
+      <c r="E17" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>24</v>
@@ -3799,11 +3835,11 @@
       </c>
       <c r="J17" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL2STNM</v>
+        <v>LFPL02STNM</v>
       </c>
       <c r="K17" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_2_STN_MT</v>
+        <v>LFP_L_02_STN_MT</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="18"/>
@@ -3819,7 +3855,7 @@
       </c>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
@@ -3832,8 +3868,8 @@
       <c r="D18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="16">
-        <v>3</v>
+      <c r="E18" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>24</v>
@@ -3849,11 +3885,11 @@
       </c>
       <c r="J18" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL3STNM</v>
+        <v>LFPL03STNM</v>
       </c>
       <c r="K18" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_3_STN_MT</v>
+        <v>LFP_L_03_STN_MT</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="18"/>
@@ -3865,7 +3901,7 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -3878,8 +3914,8 @@
       <c r="D19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="16">
-        <v>4</v>
+      <c r="E19" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>24</v>
@@ -3895,11 +3931,11 @@
       </c>
       <c r="J19" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL4STNM</v>
+        <v>LFPL04STNM</v>
       </c>
       <c r="K19" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_4_STN_MT</v>
+        <v>LFP_L_04_STN_MT</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="18"/>
@@ -3910,7 +3946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -3923,8 +3959,8 @@
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="16">
-        <v>5</v>
+      <c r="E20" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>24</v>
@@ -3940,11 +3976,11 @@
       </c>
       <c r="J20" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL5STNM</v>
+        <v>LFPL05STNM</v>
       </c>
       <c r="K20" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_5_STN_MT</v>
+        <v>LFP_L_05_STN_MT</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="21"/>
@@ -3956,7 +3992,7 @@
       </c>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
@@ -3969,8 +4005,8 @@
       <c r="D21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="16">
-        <v>6</v>
+      <c r="E21" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>24</v>
@@ -3986,11 +4022,11 @@
       </c>
       <c r="J21" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL6STNM</v>
+        <v>LFPL06STNM</v>
       </c>
       <c r="K21" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_6_STN_MT</v>
+        <v>LFP_L_06_STN_MT</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="15" t="s">
@@ -4010,7 +4046,7 @@
       </c>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
@@ -4023,8 +4059,8 @@
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="16">
-        <v>7</v>
+      <c r="E22" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>24</v>
@@ -4040,11 +4076,11 @@
       </c>
       <c r="J22" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL7STNM</v>
+        <v>LFPL07STNM</v>
       </c>
       <c r="K22" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_7_STN_MT</v>
+        <v>LFP_L_07_STN_MT</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="21"/>
@@ -4057,7 +4093,7 @@
       </c>
       <c r="Q22" s="23"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>74</v>
       </c>
@@ -4070,8 +4106,8 @@
       <c r="D23" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="28">
-        <v>8</v>
+      <c r="E23" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>24</v>
@@ -4087,11 +4123,11 @@
       </c>
       <c r="J23" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL8STNM</v>
+        <v>LFPL08STNM</v>
       </c>
       <c r="K23" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_8_STN_MT</v>
+        <v>LFP_L_08_STN_MT</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="27" t="s">
@@ -4110,7 +4146,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>80</v>
       </c>
@@ -4140,7 +4176,7 @@
       <c r="O24" s="1"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>82</v>
       </c>
@@ -4170,7 +4206,7 @@
       <c r="O25" s="1"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>83</v>
       </c>
@@ -4200,7 +4236,7 @@
       <c r="O26" s="1"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
         <v>84</v>
       </c>
@@ -4231,7 +4267,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>85</v>
       </c>
@@ -4262,7 +4298,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>86</v>
       </c>
@@ -4292,7 +4328,7 @@
       <c r="O29" s="1"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>87</v>
       </c>
@@ -4323,7 +4359,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>88</v>
       </c>
@@ -4354,7 +4390,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>89</v>
       </c>
@@ -4367,8 +4403,8 @@
       <c r="D32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="16">
-        <v>1</v>
+      <c r="E32" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>90</v>
@@ -4384,11 +4420,11 @@
       </c>
       <c r="J32" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL1SMCA</v>
+        <v>ECXL01SMCA</v>
       </c>
       <c r="K32" s="35" t="str">
         <f>CONCATENATE(C32,"_",D32,"_",E32,"_",G32,"_",I32)</f>
-        <v>ECOG_L_1_SMC_AT</v>
+        <v>ECOG_L_01_SMC_AT</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -4397,7 +4433,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>93</v>
       </c>
@@ -4410,8 +4446,8 @@
       <c r="D33" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="28">
-        <v>2</v>
+      <c r="E33" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="F33" s="28" t="s">
         <v>90</v>
@@ -4427,18 +4463,18 @@
       </c>
       <c r="J33" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL2SMCA</v>
+        <v>ECXL02SMCA</v>
       </c>
       <c r="K33" s="35" t="str">
         <f t="shared" ref="K33:K45" si="2">CONCATENATE(C33,"_",D33,"_",E33,"_",G33,"_",I33)</f>
-        <v>ECOG_L_2_SMC_AT</v>
+        <v>ECOG_L_02_SMC_AT</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>94</v>
       </c>
@@ -4451,8 +4487,8 @@
       <c r="D34" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="22">
-        <v>3</v>
+      <c r="E34" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>90</v>
@@ -4468,18 +4504,18 @@
       </c>
       <c r="J34" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL3SMCA</v>
+        <v>ECXL03SMCA</v>
       </c>
       <c r="K34" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>ECOG_L_3_SMC_AT</v>
+        <v>ECOG_L_03_SMC_AT</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>95</v>
       </c>
@@ -4492,8 +4528,8 @@
       <c r="D35" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="22">
-        <v>4</v>
+      <c r="E35" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="28" t="s">
         <v>90</v>
@@ -4509,18 +4545,18 @@
       </c>
       <c r="J35" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL4SMCA</v>
+        <v>ECXL04SMCA</v>
       </c>
       <c r="K35" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>ECOG_L_4_SMC_AT</v>
+        <v>ECOG_L_04_SMC_AT</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>96</v>
       </c>
@@ -4533,8 +4569,8 @@
       <c r="D36" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="22">
-        <v>5</v>
+      <c r="E36" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>90</v>
@@ -4550,18 +4586,18 @@
       </c>
       <c r="J36" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL5SMCA</v>
+        <v>ECXL05SMCA</v>
       </c>
       <c r="K36" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>ECOG_L_5_SMC_AT</v>
+        <v>ECOG_L_05_SMC_AT</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>97</v>
       </c>
@@ -4574,8 +4610,8 @@
       <c r="D37" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="22">
-        <v>6</v>
+      <c r="E37" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>90</v>
@@ -4591,18 +4627,18 @@
       </c>
       <c r="J37" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>ECXL6SMCA</v>
+        <v>ECXL06SMCA</v>
       </c>
       <c r="K37" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>ECOG_L_6_SMC_AT</v>
+        <v>ECOG_L_06_SMC_AT</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>98</v>
       </c>
@@ -4643,7 +4679,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>104</v>
       </c>
@@ -4684,7 +4720,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>107</v>
       </c>
@@ -4724,7 +4760,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="19" t="s">
         <v>71</v>
@@ -4762,7 +4798,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="22" t="s">
         <v>71</v>
@@ -4800,7 +4836,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
         <v>113</v>
       </c>
@@ -4840,7 +4876,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="19" t="s">
         <v>71</v>
@@ -4878,7 +4914,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="22" t="s">
         <v>71</v>
@@ -4916,7 +4952,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>114</v>
       </c>
@@ -4957,7 +4993,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>118</v>
       </c>
@@ -4995,7 +5031,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="22" t="s">
         <v>60</v>
@@ -5032,6 +5068,7 @@
       <c r="O48" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5041,31 +5078,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF2E195-6206-42E7-8EE6-1299EB450EAC}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38:K48"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" customWidth="1"/>
-    <col min="11" max="11" width="35.1796875" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
     <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="24.54296875" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5076,7 +5113,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5085,7 +5122,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5096,7 +5133,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5111,7 +5148,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5124,7 +5161,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -5133,7 +5170,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -5184,7 +5221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>21</v>
       </c>
@@ -5197,8 +5234,8 @@
       <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34">
-        <v>1</v>
+      <c r="E8" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>24</v>
@@ -5214,11 +5251,11 @@
       </c>
       <c r="J8" s="35" t="str">
         <f t="shared" ref="J8:J39" si="0">CONCATENATE(B8,D8,E8,F8,H8)</f>
-        <v>LFPR1STNA</v>
+        <v>LFPR01STNA</v>
       </c>
       <c r="K8" s="35" t="str">
         <f t="shared" ref="K8:K31" si="1">CONCATENATE(C8,"_",D8,"_",E8,"_",G8,"_",I8)</f>
-        <v>LFP_R_1_STN_AB</v>
+        <v>LFP_R_01_STN_AB</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="30" t="s">
@@ -5237,7 +5274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>30</v>
       </c>
@@ -5250,8 +5287,8 @@
       <c r="D9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="28">
-        <v>2</v>
+      <c r="E9" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>24</v>
@@ -5267,11 +5304,11 @@
       </c>
       <c r="J9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR2STNA</v>
+        <v>LFPR02STNA</v>
       </c>
       <c r="K9" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_2_STN_AB</v>
+        <v>LFP_R_02_STN_AB</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
@@ -5286,7 +5323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>34</v>
       </c>
@@ -5299,8 +5336,8 @@
       <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="19">
-        <v>3</v>
+      <c r="E10" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>24</v>
@@ -5316,11 +5353,11 @@
       </c>
       <c r="J10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR3STNA</v>
+        <v>LFPR03STNA</v>
       </c>
       <c r="K10" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_3_STN_AB</v>
+        <v>LFP_R_03_STN_AB</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="21"/>
@@ -5335,7 +5372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
@@ -5348,8 +5385,8 @@
       <c r="D11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="16">
-        <v>4</v>
+      <c r="E11" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>24</v>
@@ -5365,11 +5402,11 @@
       </c>
       <c r="J11" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR4STNA</v>
+        <v>LFPR04STNA</v>
       </c>
       <c r="K11" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_4_STN_AB</v>
+        <v>LFP_R_04_STN_AB</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="15" t="s">
@@ -5388,7 +5425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -5401,8 +5438,8 @@
       <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="16">
-        <v>5</v>
+      <c r="E12" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>24</v>
@@ -5418,11 +5455,11 @@
       </c>
       <c r="J12" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR5STNA</v>
+        <v>LFPR05STNA</v>
       </c>
       <c r="K12" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_5_STN_AB</v>
+        <v>LFP_R_05_STN_AB</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="18"/>
@@ -5437,7 +5474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -5450,8 +5487,8 @@
       <c r="D13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="16">
-        <v>6</v>
+      <c r="E13" s="34" t="s">
+        <v>160</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>24</v>
@@ -5467,11 +5504,11 @@
       </c>
       <c r="J13" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR6STNA</v>
+        <v>LFPR06STNA</v>
       </c>
       <c r="K13" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_6_STN_AB</v>
+        <v>LFP_R_06_STN_AB</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="21"/>
@@ -5482,7 +5519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>50</v>
       </c>
@@ -5495,8 +5532,8 @@
       <c r="D14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="16">
-        <v>7</v>
+      <c r="E14" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>24</v>
@@ -5512,11 +5549,11 @@
       </c>
       <c r="J14" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR7STNA</v>
+        <v>LFPR07STNA</v>
       </c>
       <c r="K14" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_7_STN_AB</v>
+        <v>LFP_R_07_STN_AB</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="15" t="s">
@@ -5535,7 +5572,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -5548,8 +5585,8 @@
       <c r="D15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="16">
-        <v>8</v>
+      <c r="E15" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>24</v>
@@ -5565,11 +5602,11 @@
       </c>
       <c r="J15" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR8STNA</v>
+        <v>LFPR08STNA</v>
       </c>
       <c r="K15" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_8_STN_AB</v>
+        <v>LFP_R_08_STN_AB</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="21"/>
@@ -5582,7 +5619,7 @@
       </c>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -5595,8 +5632,8 @@
       <c r="D16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="16">
-        <v>1</v>
+      <c r="E16" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>24</v>
@@ -5612,11 +5649,11 @@
       </c>
       <c r="J16" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL1STNA</v>
+        <v>LFPL01STNA</v>
       </c>
       <c r="K16" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_1_STN_AB</v>
+        <v>LFP_L_01_STN_AB</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="15" t="s">
@@ -5635,7 +5672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>62</v>
       </c>
@@ -5648,8 +5685,8 @@
       <c r="D17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="16">
-        <v>2</v>
+      <c r="E17" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>24</v>
@@ -5665,11 +5702,11 @@
       </c>
       <c r="J17" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL2STNA</v>
+        <v>LFPL02STNA</v>
       </c>
       <c r="K17" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_2_STN_AB</v>
+        <v>LFP_L_02_STN_AB</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="18"/>
@@ -5684,7 +5721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
@@ -5697,8 +5734,8 @@
       <c r="D18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="16">
-        <v>3</v>
+      <c r="E18" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>24</v>
@@ -5714,11 +5751,11 @@
       </c>
       <c r="J18" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL3STNA</v>
+        <v>LFPL03STNA</v>
       </c>
       <c r="K18" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_3_STN_AB</v>
+        <v>LFP_L_03_STN_AB</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="18"/>
@@ -5729,7 +5766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5779,8 @@
       <c r="D19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="16">
-        <v>4</v>
+      <c r="E19" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>24</v>
@@ -5759,11 +5796,11 @@
       </c>
       <c r="J19" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL4STNA</v>
+        <v>LFPL04STNA</v>
       </c>
       <c r="K19" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_4_STN_AB</v>
+        <v>LFP_L_04_STN_AB</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="18"/>
@@ -5774,7 +5811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -5787,8 +5824,8 @@
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="16">
-        <v>5</v>
+      <c r="E20" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>24</v>
@@ -5804,11 +5841,11 @@
       </c>
       <c r="J20" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL5STNA</v>
+        <v>LFPL05STNA</v>
       </c>
       <c r="K20" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_5_STN_AB</v>
+        <v>LFP_L_05_STN_AB</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="21"/>
@@ -5819,7 +5856,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
@@ -5832,8 +5869,8 @@
       <c r="D21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="16">
-        <v>6</v>
+      <c r="E21" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>24</v>
@@ -5849,11 +5886,11 @@
       </c>
       <c r="J21" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL6STNA</v>
+        <v>LFPL06STNA</v>
       </c>
       <c r="K21" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_6_STN_AB</v>
+        <v>LFP_L_06_STN_AB</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="15" t="s">
@@ -5872,7 +5909,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
@@ -5885,8 +5922,8 @@
       <c r="D22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="16">
-        <v>7</v>
+      <c r="E22" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>24</v>
@@ -5902,11 +5939,11 @@
       </c>
       <c r="J22" s="36" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL7STNA</v>
+        <v>LFPL07STNA</v>
       </c>
       <c r="K22" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_7_STN_AB</v>
+        <v>LFP_L_07_STN_AB</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="21"/>
@@ -5919,7 +5956,7 @@
       </c>
       <c r="Q22" s="23"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>74</v>
       </c>
@@ -5932,8 +5969,8 @@
       <c r="D23" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="28">
-        <v>8</v>
+      <c r="E23" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>24</v>
@@ -5949,11 +5986,11 @@
       </c>
       <c r="J23" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL8STNA</v>
+        <v>LFPL08STNA</v>
       </c>
       <c r="K23" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_8_STN_AB</v>
+        <v>LFP_L_08_STN_AB</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="27" t="s">
@@ -5972,7 +6009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>80</v>
       </c>
@@ -6003,7 +6040,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>82</v>
       </c>
@@ -6034,7 +6071,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>83</v>
       </c>
@@ -6065,7 +6102,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
         <v>84</v>
       </c>
@@ -6096,7 +6133,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>85</v>
       </c>
@@ -6127,7 +6164,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>86</v>
       </c>
@@ -6158,7 +6195,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>87</v>
       </c>
@@ -6189,7 +6226,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>88</v>
       </c>
@@ -6220,7 +6257,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>89</v>
       </c>
@@ -6251,7 +6288,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>93</v>
       </c>
@@ -6282,7 +6319,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>94</v>
       </c>
@@ -6313,7 +6350,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>95</v>
       </c>
@@ -6344,7 +6381,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>96</v>
       </c>
@@ -6375,7 +6412,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>97</v>
       </c>
@@ -6406,7 +6443,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>98</v>
       </c>
@@ -6437,7 +6474,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>104</v>
       </c>
@@ -6468,7 +6505,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>107</v>
       </c>
@@ -6510,7 +6547,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="19" t="s">
         <v>71</v>
@@ -6550,7 +6587,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="22" t="s">
         <v>71</v>
@@ -6590,7 +6627,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
         <v>113</v>
       </c>
@@ -6632,7 +6669,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
       <c r="B44" s="19" t="s">
         <v>71</v>
@@ -6672,7 +6709,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="22" t="s">
         <v>71</v>
@@ -6712,7 +6749,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>114</v>
       </c>
@@ -6755,7 +6792,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
         <v>118</v>
       </c>
@@ -6797,7 +6834,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="22" t="s">
         <v>60</v>
@@ -6838,6 +6875,7 @@
       <c r="Q48" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6846,29 +6884,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E84FD4-0723-4CAC-A796-A371F3BEF297}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="30.453125" customWidth="1"/>
-    <col min="10" max="10" width="32.26953125" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.81640625" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" customWidth="1"/>
-    <col min="16" max="16" width="58.81640625" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6886,7 +6924,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6902,7 +6940,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -6920,7 +6958,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6940,7 +6978,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6960,7 +6998,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
@@ -6975,7 +7013,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -7023,7 +7061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>130</v>
       </c>
@@ -7033,8 +7071,8 @@
       <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="19">
-        <v>1</v>
+      <c r="D8" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>24</v>
@@ -7050,11 +7088,11 @@
       </c>
       <c r="I8" s="31" t="str">
         <f>CONCATENATE(B8,C8,D8,E8,G8)</f>
-        <v>LFPR1STNB</v>
+        <v>LFPR01STNB</v>
       </c>
       <c r="J8" s="31" t="str">
         <f>CONCATENATE(B8,"_",C8,"_",D8,"_",F8,"_",H8)</f>
-        <v>LFP_R_1_STN_BS</v>
+        <v>LFP_R_01_STN_BS</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="30" t="s">
@@ -7074,7 +7112,7 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>131</v>
       </c>
@@ -7084,8 +7122,8 @@
       <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="19">
-        <v>2</v>
+      <c r="D9" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>24</v>
@@ -7101,11 +7139,11 @@
       </c>
       <c r="I9" s="31" t="str">
         <f t="shared" ref="I9:I26" si="0">CONCATENATE(B9,C9,D9,E9,G9)</f>
-        <v>LFPR2STNB</v>
+        <v>LFPR02STNB</v>
       </c>
       <c r="J9" s="31" t="str">
         <f t="shared" ref="J9:J26" si="1">CONCATENATE(B9,"_",C9,"_",D9,"_",F9,"_",H9)</f>
-        <v>LFP_R_2_STN_BS</v>
+        <v>LFP_R_02_STN_BS</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="18"/>
@@ -7120,7 +7158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>132</v>
       </c>
@@ -7130,8 +7168,8 @@
       <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19">
-        <v>3</v>
+      <c r="D10" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>24</v>
@@ -7147,11 +7185,11 @@
       </c>
       <c r="I10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR3STNB</v>
+        <v>LFPR03STNB</v>
       </c>
       <c r="J10" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_3_STN_BS</v>
+        <v>LFP_R_03_STN_BS</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="21"/>
@@ -7166,7 +7204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>133</v>
       </c>
@@ -7176,8 +7214,8 @@
       <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19">
-        <v>4</v>
+      <c r="D11" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>24</v>
@@ -7193,11 +7231,11 @@
       </c>
       <c r="I11" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR4STNB</v>
+        <v>LFPR04STNB</v>
       </c>
       <c r="J11" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_4_STN_BS</v>
+        <v>LFP_R_04_STN_BS</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="15" t="s">
@@ -7216,7 +7254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>134</v>
       </c>
@@ -7226,8 +7264,8 @@
       <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19">
-        <v>5</v>
+      <c r="D12" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>24</v>
@@ -7243,11 +7281,11 @@
       </c>
       <c r="I12" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR5STNB</v>
+        <v>LFPR05STNB</v>
       </c>
       <c r="J12" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_5_STN_BS</v>
+        <v>LFP_R_05_STN_BS</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="18"/>
@@ -7262,7 +7300,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>135</v>
       </c>
@@ -7272,8 +7310,8 @@
       <c r="C13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19">
-        <v>6</v>
+      <c r="D13" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>24</v>
@@ -7289,11 +7327,11 @@
       </c>
       <c r="I13" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR6STNB</v>
+        <v>LFPR06STNB</v>
       </c>
       <c r="J13" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_6_STN_BS</v>
+        <v>LFP_R_06_STN_BS</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="21"/>
@@ -7304,7 +7342,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>136</v>
       </c>
@@ -7314,8 +7352,8 @@
       <c r="C14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="19">
-        <v>7</v>
+      <c r="D14" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>24</v>
@@ -7331,11 +7369,11 @@
       </c>
       <c r="I14" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR7STNB</v>
+        <v>LFPR07STNB</v>
       </c>
       <c r="J14" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_7_STN_BS</v>
+        <v>LFP_R_07_STN_BS</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="15" t="s">
@@ -7354,7 +7392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>137</v>
       </c>
@@ -7364,8 +7402,8 @@
       <c r="C15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="19">
-        <v>8</v>
+      <c r="D15" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>24</v>
@@ -7381,11 +7419,11 @@
       </c>
       <c r="I15" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR8STNB</v>
+        <v>LFPR08STNB</v>
       </c>
       <c r="J15" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_8_STN_BS</v>
+        <v>LFP_R_08_STN_BS</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="21"/>
@@ -7398,7 +7436,7 @@
       </c>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>138</v>
       </c>
@@ -7408,8 +7446,8 @@
       <c r="C16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="19">
-        <v>1</v>
+      <c r="D16" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>24</v>
@@ -7425,11 +7463,11 @@
       </c>
       <c r="I16" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL1STNB</v>
+        <v>LFPL01STNB</v>
       </c>
       <c r="J16" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_1_STN_BS</v>
+        <v>LFP_L_01_STN_BS</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="15" t="s">
@@ -7448,7 +7486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>139</v>
       </c>
@@ -7458,8 +7496,8 @@
       <c r="C17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="19">
-        <v>2</v>
+      <c r="D17" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>24</v>
@@ -7475,11 +7513,11 @@
       </c>
       <c r="I17" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL2STNB</v>
+        <v>LFPL02STNB</v>
       </c>
       <c r="J17" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_2_STN_BS</v>
+        <v>LFP_L_02_STN_BS</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="18"/>
@@ -7495,7 +7533,7 @@
       </c>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>140</v>
       </c>
@@ -7505,8 +7543,8 @@
       <c r="C18" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="19">
-        <v>3</v>
+      <c r="D18" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>24</v>
@@ -7522,11 +7560,11 @@
       </c>
       <c r="I18" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL3STNB</v>
+        <v>LFPL03STNB</v>
       </c>
       <c r="J18" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_3_STN_BS</v>
+        <v>LFP_L_03_STN_BS</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="18"/>
@@ -7538,7 +7576,7 @@
       </c>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>141</v>
       </c>
@@ -7548,8 +7586,8 @@
       <c r="C19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="19">
-        <v>4</v>
+      <c r="D19" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>24</v>
@@ -7565,11 +7603,11 @@
       </c>
       <c r="I19" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL4STNB</v>
+        <v>LFPL04STNB</v>
       </c>
       <c r="J19" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_4_STN_BS</v>
+        <v>LFP_L_04_STN_BS</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="18"/>
@@ -7580,7 +7618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>142</v>
       </c>
@@ -7590,8 +7628,8 @@
       <c r="C20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="19">
-        <v>5</v>
+      <c r="D20" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>24</v>
@@ -7607,11 +7645,11 @@
       </c>
       <c r="I20" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL5STNB</v>
+        <v>LFPL05STNB</v>
       </c>
       <c r="J20" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_5_STN_BS</v>
+        <v>LFP_L_05_STN_BS</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="21"/>
@@ -7623,7 +7661,7 @@
       </c>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>143</v>
       </c>
@@ -7633,8 +7671,8 @@
       <c r="C21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="19">
-        <v>6</v>
+      <c r="D21" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>24</v>
@@ -7650,11 +7688,11 @@
       </c>
       <c r="I21" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL6STNB</v>
+        <v>LFPL06STNB</v>
       </c>
       <c r="J21" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_6_STN_BS</v>
+        <v>LFP_L_06_STN_BS</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="15" t="s">
@@ -7674,7 +7712,7 @@
       </c>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>144</v>
       </c>
@@ -7684,8 +7722,8 @@
       <c r="C22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="19">
-        <v>7</v>
+      <c r="D22" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>24</v>
@@ -7701,11 +7739,11 @@
       </c>
       <c r="I22" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL7STNB</v>
+        <v>LFPL07STNB</v>
       </c>
       <c r="J22" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_7_STN_BS</v>
+        <v>LFP_L_07_STN_BS</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="21"/>
@@ -7718,7 +7756,7 @@
       </c>
       <c r="P22" s="23"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>145</v>
       </c>
@@ -7728,8 +7766,8 @@
       <c r="C23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="19">
-        <v>8</v>
+      <c r="D23" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>24</v>
@@ -7745,11 +7783,11 @@
       </c>
       <c r="I23" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL8STNB</v>
+        <v>LFPL08STNB</v>
       </c>
       <c r="J23" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_8_STN_BS</v>
+        <v>LFP_L_08_STN_BS</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="27" t="s">
@@ -7768,7 +7806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>146</v>
       </c>
@@ -7806,7 +7844,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>148</v>
       </c>
@@ -7844,7 +7882,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>149</v>
       </c>
@@ -7883,6 +7921,7 @@
       <c r="N26" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7892,31 +7931,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D117EB-8473-49FA-8416-E6BD5560DAFB}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
-    <col min="9" max="9" width="28.26953125" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" customWidth="1"/>
-    <col min="14" max="14" width="20.81640625" customWidth="1"/>
-    <col min="15" max="15" width="19.26953125" customWidth="1"/>
-    <col min="16" max="16" width="42.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7931,7 +7970,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7944,7 +7983,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -7959,7 +7998,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7976,7 +8015,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7993,7 +8032,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
@@ -8005,7 +8044,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -8053,7 +8092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>130</v>
       </c>
@@ -8063,8 +8102,8 @@
       <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="19">
-        <v>1</v>
+      <c r="D8" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>24</v>
@@ -8080,11 +8119,11 @@
       </c>
       <c r="I8" s="31" t="str">
         <f>CONCATENATE(B8,C8,D8,E8,G8)</f>
-        <v>LFPR1STNM</v>
+        <v>LFPR01STNM</v>
       </c>
       <c r="J8" s="31" t="str">
         <f>CONCATENATE(B8,"_",C8,"_",D8,"_",F8,"_",H8)</f>
-        <v>LFP_R_1_STN_MT</v>
+        <v>LFP_R_01_STN_MT</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="30" t="s">
@@ -8103,7 +8142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>131</v>
       </c>
@@ -8113,8 +8152,8 @@
       <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="19">
-        <v>2</v>
+      <c r="D9" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>24</v>
@@ -8130,11 +8169,11 @@
       </c>
       <c r="I9" s="31" t="str">
         <f t="shared" ref="I9:I26" si="0">CONCATENATE(B9,C9,D9,E9,G9)</f>
-        <v>LFPR2STNM</v>
+        <v>LFPR02STNM</v>
       </c>
       <c r="J9" s="31" t="str">
         <f t="shared" ref="J9:J26" si="1">CONCATENATE(B9,"_",C9,"_",D9,"_",F9,"_",H9)</f>
-        <v>LFP_R_2_STN_MT</v>
+        <v>LFP_R_02_STN_MT</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="18"/>
@@ -8149,7 +8188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>132</v>
       </c>
@@ -8159,8 +8198,8 @@
       <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19">
-        <v>3</v>
+      <c r="D10" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>24</v>
@@ -8176,11 +8215,11 @@
       </c>
       <c r="I10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR3STNM</v>
+        <v>LFPR03STNM</v>
       </c>
       <c r="J10" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_3_STN_MT</v>
+        <v>LFP_R_03_STN_MT</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="21"/>
@@ -8195,7 +8234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>133</v>
       </c>
@@ -8205,8 +8244,8 @@
       <c r="C11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19">
-        <v>4</v>
+      <c r="D11" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>24</v>
@@ -8222,11 +8261,11 @@
       </c>
       <c r="I11" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR4STNM</v>
+        <v>LFPR04STNM</v>
       </c>
       <c r="J11" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_4_STN_MT</v>
+        <v>LFP_R_04_STN_MT</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="15" t="s">
@@ -8245,7 +8284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>134</v>
       </c>
@@ -8255,8 +8294,8 @@
       <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19">
-        <v>5</v>
+      <c r="D12" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>24</v>
@@ -8272,11 +8311,11 @@
       </c>
       <c r="I12" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR5STNM</v>
+        <v>LFPR05STNM</v>
       </c>
       <c r="J12" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_5_STN_MT</v>
+        <v>LFP_R_05_STN_MT</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="18"/>
@@ -8291,7 +8330,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>135</v>
       </c>
@@ -8301,8 +8340,8 @@
       <c r="C13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19">
-        <v>6</v>
+      <c r="D13" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>24</v>
@@ -8318,11 +8357,11 @@
       </c>
       <c r="I13" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR6STNM</v>
+        <v>LFPR06STNM</v>
       </c>
       <c r="J13" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_6_STN_MT</v>
+        <v>LFP_R_06_STN_MT</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="21"/>
@@ -8333,7 +8372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>136</v>
       </c>
@@ -8343,8 +8382,8 @@
       <c r="C14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="19">
-        <v>7</v>
+      <c r="D14" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>24</v>
@@ -8360,11 +8399,11 @@
       </c>
       <c r="I14" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR7STNM</v>
+        <v>LFPR07STNM</v>
       </c>
       <c r="J14" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_7_STN_MT</v>
+        <v>LFP_R_07_STN_MT</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="15" t="s">
@@ -8383,7 +8422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>137</v>
       </c>
@@ -8393,8 +8432,8 @@
       <c r="C15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="19">
-        <v>8</v>
+      <c r="D15" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>24</v>
@@ -8410,11 +8449,11 @@
       </c>
       <c r="I15" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPR8STNM</v>
+        <v>LFPR08STNM</v>
       </c>
       <c r="J15" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_R_8_STN_MT</v>
+        <v>LFP_R_08_STN_MT</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="21"/>
@@ -8427,7 +8466,7 @@
       </c>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>138</v>
       </c>
@@ -8437,8 +8476,8 @@
       <c r="C16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="19">
-        <v>1</v>
+      <c r="D16" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>24</v>
@@ -8454,11 +8493,11 @@
       </c>
       <c r="I16" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL1STNM</v>
+        <v>LFPL01STNM</v>
       </c>
       <c r="J16" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_1_STN_MT</v>
+        <v>LFP_L_01_STN_MT</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="15" t="s">
@@ -8477,7 +8516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>139</v>
       </c>
@@ -8487,8 +8526,8 @@
       <c r="C17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="19">
-        <v>2</v>
+      <c r="D17" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>24</v>
@@ -8504,11 +8543,11 @@
       </c>
       <c r="I17" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL2STNM</v>
+        <v>LFPL02STNM</v>
       </c>
       <c r="J17" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_2_STN_MT</v>
+        <v>LFP_L_02_STN_MT</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="18"/>
@@ -8523,7 +8562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>140</v>
       </c>
@@ -8533,8 +8572,8 @@
       <c r="C18" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="19">
-        <v>3</v>
+      <c r="D18" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>24</v>
@@ -8550,11 +8589,11 @@
       </c>
       <c r="I18" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL3STNM</v>
+        <v>LFPL03STNM</v>
       </c>
       <c r="J18" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_3_STN_MT</v>
+        <v>LFP_L_03_STN_MT</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="18"/>
@@ -8565,7 +8604,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>141</v>
       </c>
@@ -8575,8 +8614,8 @@
       <c r="C19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="19">
-        <v>4</v>
+      <c r="D19" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>24</v>
@@ -8592,11 +8631,11 @@
       </c>
       <c r="I19" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL4STNM</v>
+        <v>LFPL04STNM</v>
       </c>
       <c r="J19" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_4_STN_MT</v>
+        <v>LFP_L_04_STN_MT</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="18"/>
@@ -8607,7 +8646,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>142</v>
       </c>
@@ -8617,8 +8656,8 @@
       <c r="C20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="19">
-        <v>5</v>
+      <c r="D20" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>24</v>
@@ -8634,11 +8673,11 @@
       </c>
       <c r="I20" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL5STNM</v>
+        <v>LFPL05STNM</v>
       </c>
       <c r="J20" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_5_STN_MT</v>
+        <v>LFP_L_05_STN_MT</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="21"/>
@@ -8649,7 +8688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>143</v>
       </c>
@@ -8659,8 +8698,8 @@
       <c r="C21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="19">
-        <v>6</v>
+      <c r="D21" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>24</v>
@@ -8676,11 +8715,11 @@
       </c>
       <c r="I21" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL6STNM</v>
+        <v>LFPL06STNM</v>
       </c>
       <c r="J21" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_6_STN_MT</v>
+        <v>LFP_L_06_STN_MT</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="15" t="s">
@@ -8699,7 +8738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>144</v>
       </c>
@@ -8709,8 +8748,8 @@
       <c r="C22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="19">
-        <v>7</v>
+      <c r="D22" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>24</v>
@@ -8726,11 +8765,11 @@
       </c>
       <c r="I22" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL7STNM</v>
+        <v>LFPL07STNM</v>
       </c>
       <c r="J22" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_7_STN_MT</v>
+        <v>LFP_L_07_STN_MT</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="21"/>
@@ -8743,7 +8782,7 @@
       </c>
       <c r="P22" s="23"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>145</v>
       </c>
@@ -8753,8 +8792,8 @@
       <c r="C23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="19">
-        <v>8</v>
+      <c r="D23" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>24</v>
@@ -8770,11 +8809,11 @@
       </c>
       <c r="I23" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>LFPL8STNM</v>
+        <v>LFPL08STNM</v>
       </c>
       <c r="J23" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>LFP_L_8_STN_MT</v>
+        <v>LFP_L_08_STN_MT</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="27" t="s">
@@ -8793,7 +8832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>146</v>
       </c>
@@ -8831,7 +8870,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>148</v>
       </c>
@@ -8869,7 +8908,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>149</v>
       </c>
@@ -8915,12 +8954,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8929,7 +8962,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B7A86FA7F3BDCA4697BB6650C7941CF5" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0038c41726a3cbfeea49429cb67666a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4062f6a-11e6-4d7b-a444-75ffaaa44e33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a69936769336e44384ab32d8045d793" ns2:_="">
     <xsd:import namespace="e4062f6a-11e6-4d7b-a444-75ffaaa44e33"/>
@@ -9113,16 +9146,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7DED0E-3063-4CA1-A1D1-C9ECBAE78138}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD40277-7F59-4B24-AE8D-E8116696EB76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9130,6 +9160,29 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E91995FF-7E4A-45AB-8304-6F4BC099517B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e4062f6a-11e6-4d7b-a444-75ffaaa44e33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E91995FF-7E4A-45AB-8304-6F4BC099517B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7DED0E-3063-4CA1-A1D1-C9ECBAE78138}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>